--- a/Warehouse/AA/judgement_logs_run4o.xlsx
+++ b/Warehouse/AA/judgement_logs_run4o.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,19 +456,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;48;16.json</t>
+          <t>./Warehouse/AA/run4o_discovery_03_31_2025 at_21;44;39.json</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: The theme for spirit week is a compromise that includes both Crazy Hat Day and Crazy Sock Day!
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -478,13 +478,13 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;46;44.json</t>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_16;45;59.json</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The theme for spirit week is a combination of "Crazy Sock Day" and "Crazy Hat Day," as both Jack and John came to a compromise on this idea.
+MSG: The outcome for this week's spirit week is that they came to a compromise.
 </t>
         </is>
       </c>
@@ -500,13 +500,13 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;54;01.json</t>
+          <t>./Warehouse/AA/run4o_discovery_03_30_2025 at_08;54;08.json</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: Based on the discussion, there was no consensus reached on whether to select crazy hat day or crazy sock day for spirit week. Therefore, I have called the function for no consensus.
 </t>
         </is>
       </c>
@@ -522,13 +522,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;49;38.json</t>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_08;58;38.json</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made: Crazy Hat and Sock Day was selected for spirit week!
+MSG: The theme for spirit week is a compromise: Crazy Hat and Sock Day has been selected.
 </t>
         </is>
       </c>
@@ -544,19 +544,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;45;30.json</t>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;48;16.json</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision for the spirit week theme is Crazy Hat Day.
+MSG: The theme for spirit week is a compromise, allowing for both Crazy Sock Day and Crazy Hat Day to be celebrated!
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">crazy_hat_day_was_selected, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -566,19 +566,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_10;03;06.json</t>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;46;44.json</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The theme for spirit week has been selected as "Crazy Hat Day."
+MSG: The theme for spirit week has been decided: they came to a compromise!
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">crazy_hat_day_was_selected, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -588,19 +588,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;49;01.json</t>
+          <t>./Warehouse/AA/run4o_discovery_03_31_2025 at_21;48;57.json</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The outcome of the discussion resulted in no consensus on the theme for spirit week.
+MSG: The decision was made, and they came to a compromise for spirit week!
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -610,19 +610,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;53;09.json</t>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;54;01.json</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The theme for spirit week has been decided as a compromise between Crazy Sock Day and Crazy Hat Day.
+MSG: The decision resulted in no consensus between the two discussions.
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">they_came_to_a_compromise, </t>
+          <t xml:space="preserve">no_consensus, </t>
         </is>
       </c>
     </row>
@@ -632,13 +632,13 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;44;41.json</t>
+          <t>./Warehouse/AA/run4o_discovery_03_30_2025 at_08;55;03.json</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Since there was no consensus reached, I will call the function indicating that outcome.
+MSG: There was no consensus reached between John and Jack regarding the theme for spirit week.
 </t>
         </is>
       </c>
@@ -654,13 +654,13 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;46;10.json</t>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;49;38.json</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Since both parties agreed on Crazy Sock Day, the function corresponding to the selected day has been called successfully. The theme for spirit week is Crazy Sock Day!
+MSG: The theme for spirit week is a compromise: "Crazy Hat and Sock Day" was selected!
 </t>
         </is>
       </c>
@@ -676,13 +676,13 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;51;56.json</t>
+          <t>./Warehouse/AA/run4o_discovery_03_30_2025 at_08;59;58.json</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: It appears that there was no consensus reached regarding the theme for spirit week.
+MSG: The outcome of the discussion is that there was no consensus reached.
 </t>
         </is>
       </c>
@@ -698,19 +698,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_10;00;31.json</t>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;45;30.json</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Since there was no consensus on the theme for spirit week, I have called the function for no consensus.
+MSG: The theme for spirit week has been decided: Crazy Hat Day was selected.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">crazy_hat_day_was_selected, </t>
         </is>
       </c>
     </row>
@@ -720,13 +720,13 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;57;49.json</t>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_08;50;46.json</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: It appears there was no consensus reached on a theme for spirit week.
+MSG: The outcome of the discussion did not lead to a consensus on the theme for spirit week, so a decision cannot be made at this time.
 </t>
         </is>
       </c>
@@ -742,19 +742,19 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_10;03;31.json</t>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_10;03;06.json</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Since there was no consensus, I will call the function for no consensus.
+MSG: The theme for spirit week is "Crazy Hat Day."
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">crazy_hat_day_was_selected, </t>
         </is>
       </c>
     </row>
@@ -764,19 +764,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;53;32.json</t>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_20;42;18.json</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The theme for spirit week is Crazy Hat Day, which was selected.
+MSG: The outcome of the discussion is that they came to a compromise.
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">crazy_hat_day_was_selected, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -786,19 +786,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;59;44.json</t>
+          <t>./Warehouse/AA/run4o_discovery_03_31_2025 at_21;47;14.json</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week, so the appropriate function has been called.
+MSG: The theme for spirit week will be a compromise: Crazy Sock and Crazy Hat Day.
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -808,13 +808,13 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;50;00.json</t>
+          <t>./Warehouse/AA/run4o_discovery_03_31_2025 at_21;33;07.json</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: The outcome of the discussion did not lead to a consensus, so I have called for no consensus on the theme for spirit week.
 </t>
         </is>
       </c>
@@ -830,13 +830,13 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;43;45.json</t>
+          <t>./Warehouse/AA/run4o_discovery_04_03_2025 at_20;14;10.json</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Since there was no consensus reached between the two sides on the theme for spirit week, I have called the function for no consensus.
+MSG: Since John and Jack did not reach a consensus, the result is that there is no agreement on the theme for spirit week.
 </t>
         </is>
       </c>
@@ -852,13 +852,13 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;55;28.json</t>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_16;42;01.json</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The outcome of the discussion is that a compromise was reached. The theme for spirit week will be a hybrid of Crazy Sock Day and Crazy Hat Day!
+MSG: The decision for spirit week is that they came to a compromise with a Split Spirit Day, featuring both Crazy Sock Day and Crazy Hat Day.
 </t>
         </is>
       </c>
@@ -874,13 +874,13 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;56;32.json</t>
+          <t>./Warehouse/AA/run4o_discovery_04_03_2025 at_20;12;04.json</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision for spirit week is that they came to a compromise on a combined theme, which suggests that Crazy Hat and Sock Day was selected.
+MSG: The outcome of the discussion is that they came to a compromise.
 </t>
         </is>
       </c>
@@ -896,13 +896,13 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_10;01;37.json</t>
+          <t>./Warehouse/AA/run4o_discovery_04_03_2025 at_20;06;17.json</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The theme for spirit week has been decided as Crazy Sock Day, with the possibility of incorporating hats as well.
+MSG: The theme for spirit week has been decided, and they came to a compromise.
 </t>
         </is>
       </c>
@@ -918,19 +918,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;58;22.json</t>
+          <t>./Warehouse/AA/run4o_discovery_03_31_2025 at_21;34;48.json</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The result is that there was no consensus on the theme for spirit week.
+MSG: The outcome of the discussion is that they came to a compromise.
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -940,19 +940,19 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_10;02;16.json</t>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_08;57;59.json</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision for the theme of Spirit Week did not result in a consensus.
+MSG: The decision for spirit week has been made, and they came to a compromise!
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -962,19 +962,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;57;10.json</t>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_16;40;03.json</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The outcome of the discussion resulted in no consensus on the theme for spirit week.
+MSG: The theme for spirit week has been decided as a compromise, embracing both "Crazy Sock Day" and "Crazy Hat Day."
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -984,19 +984,19 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;59;00.json</t>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_16;45;08.json</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus on the theme for spirit week.
+MSG: The result of the discussion is that they came to a compromise.
 </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -1006,19 +1006,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;50;46.json</t>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_16;46;46.json</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus on the theme for spirit week, so I called the function for no consensus.
+MSG: The decision has been made: they came to a compromise.
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -1028,19 +1028,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;47;28.json</t>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;49;01.json</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus on the theme for spirit week.
+MSG: The decision for spirit week is that they came to a compromise!
 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -1050,19 +1050,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;54;59.json</t>
+          <t>./Warehouse/AA/run4o_discovery_04_03_2025 at_20;13;23.json</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The theme for spirit week is Crazy Sock Day with optional Crazy Hats, as both parties came to a compromise.
+MSG: The outcome is that there was no consensus reached between the discussions on the theme for spirit week.
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">they_came_to_a_compromise, </t>
+          <t xml:space="preserve">no_consensus, </t>
         </is>
       </c>
     </row>
@@ -1072,13 +1072,13 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;51;32.json</t>
+          <t>./Warehouse/AA/run4o_discovery_03_30_2025 at_08;58;56.json</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The theme for spirit week has been decided, and it is Crazy Sock and Hat Day!
+MSG: The theme for spirit week is "Crazy Socks and Hats Day."
 </t>
         </is>
       </c>
@@ -1094,19 +1094,3935 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>./Warehouse/AA/run4o_discovery_03_31_2025 at_21;30;16.json</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since there was no consensus reached between Jack and John regarding the theme for spirit week, the appropriate decision is to call for no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_08;55;16.json</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since both John and Jack agreed to collaborate on a proposal that includes both Crazy Hat Day and Crazy Sock Day, the decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_30_2025 at_08;51;28.json</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome for this week's spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_30_2025 at_08;45;08.json</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_30_2025 at_08;42;01.json</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided as a compromise, incorporating both crazy hats and crazy socks!
+</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_08;44;35.json</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise: Crazy Sock Day with optional Crazy Hats is the selected theme.
+</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;53;09.json</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise combining both Crazy Sock Day and Crazy Hat Day!
+</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;44;41.json</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made: they came to a compromise for the theme of spirit week!
+</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_08;43;29.json</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise, allowing for both Crazy Hat Day and Crazy Sock Day to be included in the theme.
+</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;46;10.json</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is Crazy Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">crazy_sock_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_31_2025 at_21;51;36.json</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is "Crazy Hat and Socks Day." Both parties came to a compromise, agreeing on this fun theme for the kids to enjoy.
+</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_03_2025 at_20;09;43.json</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided as a compromise, combining both Crazy Hat Day and Crazy Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_31_2025 at_21;42;59.json</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_16;53;50.json</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_31_2025 at_21;31;39.json</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is "Crazy Sock Day," as both parties agreed and came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_31_2025 at_21;51;06.json</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise, featuring both Crazy Hat Day and Crazy Sock Day!
+</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;51;56.json</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome for this week's spirit week is that they came to a compromise, allowing both Crazy Hat Day and Crazy Sock Day to be celebrated!
+</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_09;00;07.json</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_16;55;39.json</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made: they came to a compromise for spirit week!
+</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_21;02;55.json</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_31_2025 at_21;43;48.json</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_20;48;14.json</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The result is that there was no consensus reached for the theme of spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_31_2025 at_21;49;53.json</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise. The selected theme for spirit week is a combination of Crazy Hat Day and Crazy Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_16;41;01.json</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion did not result in a consensus on a theme for spirit week; therefore, I have called for no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_08;51;38.json</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is "Crazy Hat and Sock Day," as both John and Jack came to a compromise on this theme.
+</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_31_2025 at_21;48;12.json</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached on whether to select "Crazy Hat Day" or "Crazy Sock Day."
+</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_08;49;03.json</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_20;51;04.json</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is Crazy Hat Day, as that was the selected option agreed upon by both John and Jack.
+</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">crazy_hat_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_08;45;35.json</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome they arrived at is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_08;59;08.json</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion did not result in a consensus. Therefore, I have called the no_consensus function.
+</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_20;46;41.json</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_10;00;31.json</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The discussion led to a compromise, and therefore, the decision for spirit week is "Crazy Hat and Sock Day."
+</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_16;48;04.json</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is "Crazy Hat and Sock Day," as John and Jack came to a compromise that they both agreed upon.
+</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;57;49.json</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made: they came to a compromise for the theme of spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_03_2025 at_20;19;24.json</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise between Crazy Sock Day and Crazy Hat Day.
+</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_16;54;57.json</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided, and they came to a compromise!
+</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_21;03;46.json</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise, combining both Crazy Sock Day and Crazy Hat Day into a unified celebration.
+</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_03_2025 at_20;17;59.json</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is a compromise, and the theme selected is Crazy Sock and Hat Day.
+</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_30_2025 at_08;50;06.json</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The result of the discussion is that there was no consensus reached on the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_30_2025 at_08;42;27.json</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided: Crazy Sock Day has been selected!
+</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">crazy_sock_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_30_2025 at_08;57;34.json</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The result of the discussion is that they came to a compromise. The theme for spirit week will be "Crazy Hat and Sock Day."
+</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_16;44;36.json</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The discussion did not result in a consensus for the spirit week theme, so the outcome is no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_10;03;31.json</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been finalized as a compromise between crazy hat day and crazy sock day.
+</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_20;54;31.json</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made: they came to a compromise for the spirit week theme.
+</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;53;32.json</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided: Crazy Hat Day was selected.
+</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">crazy_hat_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_03_2025 at_20;03;30.json</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise, and both Crazy Sock Day and Crazy Hat Day will be celebrated!
+</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_20;49;25.json</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The discussion did not lead to a consensus on the theme for spirit week. Therefore, the result is no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_31_2025 at_21;46;45.json</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_30_2025 at_08;52;10.json</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week has been made, and they came to a compromise on "Crazy Sock and Hat Day!"
+</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_08;40;51.json</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since John and Jack did not come to a consensus on the theme for spirit week, I have called for no_consensus.
+</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_31_2025 at_21;50;25.json</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since there was no consensus reached between Jack and John on the theme for spirit week, I have called the function `no_consensus`.
+</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_09;47;30.json</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The result of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;59;44.json</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion did not lead to a consensus on the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_30_2025 at_08;55;38.json</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome for the theme of spirit week is that there was no consensus reached between John and Jack.
+</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_16;48;35.json</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached on the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_03_2025 at_20;16;35.json</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise, resulting in the selection of "Crazy Sock and Hat Day" for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_16;53;03.json</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for the theme of spirit week did not reach a consensus, so the function to indicate that is called.
+</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_30_2025 at_09;01;34.json</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided, and they came to a compromise!
+</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_08;46;23.json</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;50;00.json</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion resulted in no consensus regarding the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_20;44;27.json</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The result of the discussion is that they came to a compromise for the theme of spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_30_2025 at_09;02;50.json</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week has been made: they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;43;45.json</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion did not reach a consensus on a theme for spirit week, so I have called for no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_03_2025 at_20;11;13.json</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise on the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_08;42;03.json</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since there was no consensus reached between both parties on the theme for spirit week, I have called for no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_08;54;42.json</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_16;37;14.json</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise between Crazy Hat Day and Crazy Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_30_2025 at_08;59;33.json</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise of Crazy Hat Day and Crazy Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;55;28.json</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise: Crazy Sock Day and Crazy Hat Day will be celebrated together.
+</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_30_2025 at_08;56;54.json</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made: they came to a compromise for the spirit week theme!
+</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_20;58;33.json</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome is that there was no consensus reached between the two parties regarding the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_20;43;38.json</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week has been finalized, and they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_08;47;46.json</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise between Crazy Sock Day and Crazy Hat Day.
+</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_03_2025 at_20;05;51.json</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided as a compromise: Crazy Hat and Crazy Sock Day!
+</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_30_2025 at_08;40;21.json</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week will be "Crazy Hat and Sock Day," as both John and Jack came to a compromise on this decision.
+</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;56;32.json</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome decided for spirit week is a compromise, with both Crazy Hat Day and Crazy Sock Day being selected.
+</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_16;39;08.json</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is "Crazy Hat and Sock Day," as both John and Jack agreed to this compromise.
+</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_09;45;34.json</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_16;52;17.json</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached regarding the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_03_2025 at_20;07;38.json</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_31_2025 at_21;47;50.json</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion resulted in a compromise, leading to the selection of both Crazy Hat Day and Crazy Sock Day for this week's spirit week!
+</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_08;53;59.json</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome for this week's spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_03_2025 at_20;10;19.json</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise. The selected theme is "Crazy Sock and Hat Day."
+</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_20;52;52.json</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise, incorporating both Crazy Sock Day and Crazy Hat Day!
+</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_20;45;28.json</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise, incorporating both crazy hat day and crazy sock day.
+</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_31_2025 at_21;45;17.json</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The result of the discussion indicates that there was no consensus reached for the theme of spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_16;54;24.json</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made, and they came to a compromise. The theme for spirit week will include both Crazy Sock Day and Crazy Hat Day!
+</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_10;01;37.json</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The result of the discussion is that they came to a compromise. The theme for spirit week is Crazy Sock Day, with the option to incorporate Crazy Hat participation as well.
+</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_16;38;35.json</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made: they came to a compromise for the spirit week theme!
+</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_20;51;50.json</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: It seems that there was no consensus reached regarding the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_08;42;38.json</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision resulted in no consensus between the participants regarding the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_20;57;18.json</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision did not reach a consensus.
+</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_21;01;33.json</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided as a compromise, combining elements of both Crazy Hat Day and Crazy Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_20;59;18.json</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been selected, and they came to a compromise!
+</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_03_2025 at_19;59;56.json</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for the spirit week theme has resulted in no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_31_2025 at_21;29;35.json</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome for spirit week is that both Crazy Hat Day and Crazy Sock Day have been selected as a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_08;48;28.json</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made: they came to a compromise for spirit week!
+</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_16;57;01.json</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion did not lead to a consensus, so I have called the function for no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_16;37;50.json</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made, and they came to a compromise for spirit week! The theme will be "Crazy Hat and Crazy Sock Day."
+</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_16;49;55.json</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since there was no consensus reached between John and Jack regarding the theme for spirit week, I have called the function for no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_16;42;37.json</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome for this week's spirit week theme is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_08;52;27.json</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided, and they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_03_2025 at_19;59;01.json</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision resulted in no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;58;22.json</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for the theme of spirit week resulted in no consensus between Jack and John.
+</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_31_2025 at_21;40;36.json</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made, and they came to a compromise for the theme of spirit week: "Crazy Sock and Hat Day."
+</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_30_2025 at_08;45;58.json</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise: "Crazy Hat and Sock Day" will be celebrated, combining both elements for a fun and inclusive event!
+</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_30_2025 at_08;50;46.json</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is Crazy Hat Day, as both John and Jack agreed to this decision.
+</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">crazy_hat_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_31_2025 at_21;32;33.json</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Based on the discussion, there was no consensus reached between John and Jack on whether to select Crazy Hat Day or Crazy Sock Day. As a result, the decision is that there is no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_31_2025 at_21;39;42.json</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_31_2025 at_21;29;11.json</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise, selecting both Crazy Hat Day and Crazy Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_31_2025 at_21;35;51.json</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since there was no consensus reached on the theme for spirit week, I will proceed with the decision reflecting that.
+</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_10;02;16.json</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion did not result in a consensus, so I have called the no_consensus function.
+</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_03_2025 at_20;16;08.json</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made: they came to a compromise for Crazy Sock and Hat Day!
+</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_08;56;35.json</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise on "Crazy Hat and Sock Day."
+</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_03_2025 at_20;12;45.json</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been selected, and they came to a compromise!
+</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_03_2025 at_20;05;01.json</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Based on the discussion, there was no consensus reached regarding the selection between crazy hat day or crazy sock day. Therefore, the outcome is to call no_consensus.
+</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_20;41;46.json</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise, and the theme for spirit week will be Crazy Sock Day with an element of storytelling.
+</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_30_2025 at_08;48;24.json</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The committee has come to a compromise. The theme for spirit week will incorporate both Crazy Sock Day and Crazy Hat Day!
+</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_30_2025 at_08;41;13.json</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for the theme of spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_03_2025 at_20;04;18.json</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The discussion did not lead to a consensus, so no theme was selected for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_20;55;11.json</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made: the theme for spirit week will be a compromise that includes Crazy Sock Day while allowing hats as an optional accessory!
+</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_31_2025 at_21;42;12.json</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome for this week's spirit week theme is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_20;47;24.json</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise, incorporating elements from both Crazy Sock Day and Crazy Hat Day.
+</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_30_2025 at_08;44;19.json</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for the theme of spirit week is “Crazy Sock and Hat Day,” as John Smith and Jack Donaldson came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_20;48;57.json</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is set as a compromise with "Anything Goes" day.
+</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_16;50;36.json</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise. Both Crazy Hat Day and Crazy Sock Day will take place, with Crazy Hat Day being selected for this Friday.
+</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;57;10.json</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision resulted in no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_03_2025 at_20;15;08.json</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached regarding the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_16;56;18.json</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_20;56;33.json</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: In this case, there was no consensus reached between both parties regarding the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;59;00.json</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion resulted in a compromise, leading to the selection of Crazy Sock Day as the main theme, with an encouragement for crazy hats.
+</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_21;04;41.json</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that Crazy Hat Day was selected.
+</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">crazy_hat_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_09;46;33.json</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided as a compromise between Crazy Hat Day and Crazy Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_03_2025 at_20;01;50.json</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is set as Crazy Hat and Sock Day, reflecting the compromise reached between both Jack and John.
+</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_31_2025 at_21;41;34.json</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made: they came to a compromise! The theme for spirit week will include elements of both Crazy Sock Day and Crazy Hat Day.
+</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_08;40;09.json</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_30_2025 at_08;49;25.json</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_08;47;18.json</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been selected as a compromise, incorporating both crazy hat day and crazy sock day!
+</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_20;46;08.json</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The result of the discussion is that they came to a compromise, and the theme for spirit week will be "Crazy Hat and Sock Day."
+</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_03_2025 at_20;02;27.json</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion did not lead to a consensus, so the function for no consensus has been called.
+</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_03_2025 at_20;08;22.json</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise, resulting in a combined theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_30_2025 at_08;52;34.json</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion did not reach a consensus, so I have called for no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;50;46.json</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided: both Crazy Hat Day and Crazy Sock Day will be celebrated!
+</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;47;28.json</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_16;51;13.json</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise, allowing for both Crazy Hat Day and Crazy Sock Day to be celebrated!
+</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_03_2025 at_19;58;09.json</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise: they have decided on a combined crazy sock and hat day.
+</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_21;00;56.json</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided: they came to a compromise with "Crazy Hat and Sock Day."
+</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_30_2025 at_08;46;44.json</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached between Jack and John on the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;54;59.json</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise: Crazy Sock Day with optional Crazy Hats.
+</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_16;39;28.json</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Given that John and Jack could not reach a consensus on the theme for spirit week, the decision is to call no_consensus.
+</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_31_2025 at_21;30;52.json</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided through a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_31_2025 at_21;34;06.json</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided, and they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_20;42;59.json</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise, incorporating both Crazy Sock Day and Crazy Hat Day!
+</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_08;57;14.json</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_16;43;50.json</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been set, and it is a compromise that includes both Crazy Hat Day and Crazy Sock Day!
+</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_08;49;54.json</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The discussion did not lead to a consensus on the theme for spirit week, so I have decided to call no_consensus.
+</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_31_2025 at_21;37;05.json</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week has been made: they came to a compromise!
+</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_20;57;57.json</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise, selecting Crazy Sock and Hat Day!
+</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_30_2025 at_08;47;28.json</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached between the two parties regarding the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_20;53;45.json</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for the theme of spirit week could not come to a consensus.
+</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_20;50;14.json</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for the spirit week theme did not reach a consensus.
+</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_09;44;51.json</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_03_2025 at_20;00;48.json</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_03_2025 at_20;09;00.json</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise!
+</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_16;47;20.json</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise: Crazy Sock and Hat Day!
+</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_31_2025 at_21;37;53.json</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided: they came to a compromise!
+</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;51;32.json</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided as a compromise: Crazy Sock and Hat Day.
+</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_03_2025 at_20;06;52.json</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached between John and Jack regarding the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_30_2025 at_09;00;41.json</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made, and they came to a compromise! Both Crazy Hat Day and Crazy Sock Day will be part of the spirit week theme.
+</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_30_2025 at_08;53;25.json</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is "Crazy Sock and Hat Day," as both Jack and John came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_03_2025 at_20;18;26.json</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome for spirit week is that they came to a compromise!
+</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_03_2025 at_20;17;16.json</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise of "Crazy Hat and Sock Day."
+</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_01_2025 at_20;55;44.json</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise. Crazy Sock Day will be celebrated this Friday, with Crazy Hat Day planned for a later date.
+</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_30_2025 at_08;58;30.json</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is "Crazy Hat and Sock Day," as both individuals came to a compromise and agreed on this theme.
+</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_04_03_2025 at_19;57;31.json</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The discussion resulted in a compromise, and the theme for spirit week has been selected.
+</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
           <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_09;52;25.json</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MSG: None
-MSG: It appears there was no consensus reached for the spirit week theme.
-</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no_consensus, </t>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The result of the discussion is that there was no consensus reached for the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_16;49;20.json</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_30_2025 at_08;43;12.json</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made: both parties came to a compromise and selected Crazy Sock and Crazy Hat Day as the theme for Spirit Week!
+</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>./Warehouse/AA/run4o_discovery_03_28_2025 at_16;43;17.json</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been selected as a compromise, incorporating both crazy hat day and crazy sock day.
+</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>

--- a/Warehouse/AA/judgement_logs_run4o.xlsx
+++ b/Warehouse/AA/judgement_logs_run4o.xlsx
@@ -462,13 +462,13 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie."
+MSG: The decision has been recorded with no movie chosen for Friday.
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -484,13 +484,13 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to "Barbie" have been successfully acquired for the upcoming assembly.
+MSG: The decision process has concluded without an agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -506,13 +506,13 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday could not be made.
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -528,13 +528,13 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no movie selected for Friday based on the committee's discussion.
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming assembly.
+MSG: The decision has been recorded to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -572,13 +572,13 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" based on the committee's discussions.
+MSG: The decision process resulted in no agreement on which movie to play, leading to the conclusion of no decision being made.
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -594,13 +594,13 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded as no agreement was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -616,13 +616,13 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The committee did not arrive at a decision regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -638,13 +638,13 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming screening based on the committee's discussion and votes.
+MSG: The decision process concluded without a clear agreement on which movie to show on Friday, resulting in no movie selection.
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -660,13 +660,13 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming event.
+MSG: The decision to show a movie on Friday could not be reached, and thus, no acquisition will be made.
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -682,13 +682,13 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the assembly on Friday.
+MSG: The function has been called, indicating that no decision about Friday’s movie has been made.
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -704,13 +704,13 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the screening on Friday.
+MSG: The decision about which movie to play on Friday was not reached, so I have recorded that there was no decision made.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -726,13 +726,13 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie that will be shown on Friday.
+MSG: The rights for both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -748,13 +748,13 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding the movie to be shown on Friday was reached.
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision has been recorded. "Oppenheimer" will be shown on Friday.
 </t>
         </is>
       </c>
@@ -792,13 +792,13 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the event on Friday.
+MSG: The decision has been recorded as no movie was selected.
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -814,13 +814,13 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Oppenheimer" for the movie to be shown on Friday.
+MSG: The decision about which movie to show on Friday was not reached.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -836,13 +836,13 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision about which movie to show on Friday could not be made.
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -858,13 +858,13 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to show "Oppenheimer" for the event.
+MSG: The decision has been recorded as no decision about Friday's movie can be made.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -880,13 +880,13 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as a no decision regarding the movie selection for Friday.
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -902,13 +902,13 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Oppenheimer" based on its emphasis on fostering critical discussions and preparing students for the complexities they will encounter in adulthood.
+MSG: The decision about which movie to show on Friday was not reached, so no acquisition will be made.
 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -924,13 +924,13 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision process has concluded without a definitive choice for Friday's movie, resulting in no movie being selected.
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -946,13 +946,13 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming screening.
+MSG: The committee did not reach a decision regarding the movie to show on Friday, so the outcome is recorded as no decision.
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been finalized, as it is the selected movie for Friday’s screening.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -990,13 +990,13 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision regarding which movie to show on Friday has not been finalized.
 </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1012,13 +1012,13 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights to "Barbie" for the screening based on the conversation in the committee meeting.
+MSG: The decision has been recorded as no decision about Friday's movie can be made.
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1034,13 +1034,13 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded as "no decision" regarding the selection of a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights for both movies, "Oppenheimer" and "Barbie," to be shown in their entirety on Friday.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -1078,13 +1078,13 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no movie was selected in the discussion.
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown during the event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1122,13 +1122,13 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" for the movie showing on Friday.
+MSG: The decision has been recorded. There is no agreement on which movie to show on Friday, so the conversation has concluded without a plan.
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to show on Friday.
+MSG: The decision has been recorded: "Oppenheimer" was selected to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1166,13 +1166,13 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1210,13 +1210,13 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for Friday's movie presentation.
+MSG: The decision has been recorded as no selection being made for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1232,13 +1232,13 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown during the assembly.
+MSG: The decision has been recorded as no movie selected for this meeting.
 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1254,13 +1254,13 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision has been recorded as there being no decision about the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1276,13 +1276,13 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision-making process concluded without a clear choice for Friday's movie, so no decision was made.
 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1298,13 +1298,13 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The function has been called, and the decision reflects that the committee could not reach an agreement on a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1342,13 +1342,13 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the public performance rights for "Barbie."
+MSG: The decision regarding the movie for Friday was not made.
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded and the rights to "Barbie" have been acquired for Friday's movie showing.
 </t>
         </is>
       </c>
@@ -1386,13 +1386,13 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to "Barbie" have been successfully acquired for the screening.
+MSG: A decision was not reached regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1408,13 +1408,13 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been recorded.
+MSG: The decision has been registered as "no decision," indicating that there was no consensus reached about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1452,13 +1452,13 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Barbie" for the event on Friday.
+MSG: The decision has been recorded, indicating that no agreement was reached regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1474,13 +1474,13 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded with no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1496,13 +1496,13 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision regarding the movie to be shown on Friday has been concluded with no selection made.
 </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights to show "Barbie" during the event.
+MSG: The decision to show "Barbie" has been successfully made.
 </t>
         </is>
       </c>
@@ -1540,13 +1540,13 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The conversation concluded without a decision regarding what movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1562,13 +1562,13 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday, reflecting the committee's consensus to combine enjoyment and educational value for the event.
+MSG: I've successfully acquired the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1584,13 +1584,13 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be screened on Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1606,13 +1606,13 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1628,13 +1628,13 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, indicating that no choice of movie can be made at this time.
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie."
+MSG: The decision has been recorded, and the movie "Barbie" will be acquired for showing this Friday.
 </t>
         </is>
       </c>
@@ -1672,13 +1672,13 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding which movie to show on Friday has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1694,13 +1694,13 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer," which will be shown at the upcoming assembly.
+MSG: The rights for both movies have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1716,13 +1716,13 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The result indicates that there was no decision made regarding the movie selection for Friday.
 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1738,13 +1738,13 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision about which movie to show on Friday remains unresolved, as indicated by the lack of consensus between the committee members.
 </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1760,13 +1760,13 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision-making process has reached a point of no consensus regarding the movie for Friday, and thus, no decision has been made.
 </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1782,13 +1782,13 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event on Friday.
+MSG: The decision process has concluded without a selection for the movie to be shown on Friday. No movie rights will be acquired at this time.
 </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision is made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1826,13 +1826,13 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to both movies, "Oppenheimer" and "Barbie," for the screening on Friday.
+MSG: The decision has been recorded, and no specific movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1848,13 +1848,13 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the public performance rights for "Barbie."
+MSG: The decision has been recorded as a no decision regarding which movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1870,13 +1870,13 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: The decision to show a movie on Friday remains undecided, as there was no agreement reached during the conversation.
 </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1892,13 +1892,13 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie." This choice reflects the committee's emphasis on finding a film that resonates well with the seniors and fosters meaningful discussions.
+MSG: The decision process regarding the movie for Friday concluded without reaching a definitive agreement, so no decision has been made.
 </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1936,13 +1936,13 @@
       <c r="C69" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding which movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1958,7 +1958,7 @@
       <c r="C70" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1980,7 +1980,7 @@
       <c r="C71" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
@@ -2002,13 +2002,13 @@
       <c r="C72" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2024,13 +2024,13 @@
       <c r="C73" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event on Friday.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       <c r="C74" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and the movie "Barbie" will be acquired for Friday's showing.
 </t>
         </is>
       </c>
@@ -2068,13 +2068,13 @@
       <c r="C75" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2090,13 +2090,13 @@
       <c r="C76" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made: there was no consensus on which movie to select for Friday's viewing, so no decision will be recorded.
 </t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2112,13 +2112,13 @@
       <c r="C77" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision have been recorded as no decision was made about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2134,7 +2134,7 @@
       <c r="C78" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -2156,13 +2156,13 @@
       <c r="C79" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The committee did not reach a decision regarding which movie to show on Friday, so no further action can be taken.
 </t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2178,13 +2178,13 @@
       <c r="C80" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no agreement was reached on a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2200,7 +2200,7 @@
       <c r="C81" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Oppenheimer" to be shown at the upcoming event on Friday.
+MSG: The decision to show "Oppenheimer" has been recorded successfully.
 </t>
         </is>
       </c>
@@ -2222,13 +2222,13 @@
       <c r="C82" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The committee did not reach a decision on which movie to show on Friday, so no film will be acquired at this time.
 </t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2244,7 +2244,7 @@
       <c r="C83" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -2266,13 +2266,13 @@
       <c r="C84" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded as no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2288,13 +2288,13 @@
       <c r="C85" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to show on Friday.
+MSG: The decision process about the movie for Friday ended without a clear choice, so no acquisition is made.
 </t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2310,7 +2310,7 @@
       <c r="C86" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a concrete decision regarding which movie will be shown on Friday, as they opted to poll the students for their preferences. Thus, I will call the no_decision function.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
@@ -2332,13 +2332,13 @@
       <c r="C87" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2354,13 +2354,13 @@
       <c r="C88" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Oppenheimer" based on the committee's agreement to showcase this film for the event on Friday.
+MSG: The decision has been made to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -2376,13 +2376,13 @@
       <c r="C89" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming screening.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2398,7 +2398,7 @@
       <c r="C90" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded. The movie will be shown on Friday. 
 </t>
         </is>
       </c>
@@ -2420,13 +2420,13 @@
       <c r="C91" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2442,13 +2442,13 @@
       <c r="C92" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming event.
+MSG: The decision process has concluded without a clear choice for a movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       <c r="C93" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights for "Barbie" have been acquired for the screening on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2508,13 +2508,13 @@
       <c r="C95" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: The rights to both movies have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -2530,13 +2530,13 @@
       <c r="C96" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2552,13 +2552,13 @@
       <c r="C97" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for the movie "Oppenheimer."
+MSG: The decision process concluded without a selected movie for Friday, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2574,13 +2574,13 @@
       <c r="C98" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision to acquire the rights for both movies has been successfully made.
 </t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -2596,13 +2596,13 @@
       <c r="C99" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" based on the conversation and sentiments expressed during the committee meeting.
+MSG: The decision regarding the movie for Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2618,13 +2618,13 @@
       <c r="C100" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision was made regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2640,13 +2640,13 @@
       <c r="C101" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been noted as "no decision" regarding which movie to acquire for Friday.
 </t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2662,13 +2662,13 @@
       <c r="C102" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have recorded the decision as "no_decision" since the committee did not arrive at a specific choice for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2684,7 +2684,7 @@
       <c r="C103" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision to show "Barbie" on Friday has been confirmed.
 </t>
         </is>
       </c>
@@ -2706,13 +2706,13 @@
       <c r="C104" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event.
+MSG: The decision process concluded without selecting a movie for Friday, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2728,13 +2728,13 @@
       <c r="C105" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire rights for both movies has been executed.
 </t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -2750,13 +2750,13 @@
       <c r="C106" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision-making process did not result in a final choice for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2772,13 +2772,13 @@
       <c r="C107" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
+MSG: The decision has been recorded as no consensus was reached regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2794,13 +2794,13 @@
       <c r="C108" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision from the committee is that no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2816,13 +2816,13 @@
       <c r="C109" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2838,13 +2838,13 @@
       <c r="C110" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision about which movie to play on Friday could not be made, as there was no consensus reached.
 </t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2860,13 +2860,13 @@
       <c r="C111" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2882,13 +2882,13 @@
       <c r="C112" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2904,13 +2904,13 @@
       <c r="C113" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the screening on Friday.
+MSG: The decision process did not result in an agreement on which movie to show on Friday, so the outcome is recorded as no decision.
 </t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2926,13 +2926,13 @@
       <c r="C114" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded as "no decision" regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2948,13 +2948,13 @@
       <c r="C115" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to show "Oppenheimer" on Friday.
+MSG: The decision about the movie for Friday has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2970,13 +2970,13 @@
       <c r="C116" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The rights for both "Oppenheimer" and "Barbie" have been acquired for Friday's movie showing.
 </t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -2992,13 +2992,13 @@
       <c r="C117" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision.
 </t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3014,13 +3014,13 @@
       <c r="C118" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The function for no decision has been successfully called, indicating that there was no agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3036,13 +3036,13 @@
       <c r="C119" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding the movie for Friday has concluded without a selection being made.
 </t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3058,13 +3058,13 @@
       <c r="C120" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for Friday's movie showing.
+MSG: The committee did not reach a decision on which movie to show on Friday, so the outcome was recorded as no decision.
 </t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3080,13 +3080,13 @@
       <c r="C121" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision process concluded without making a choice for Friday's movie, so no selection was made.
 </t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3102,13 +3102,13 @@
       <c r="C122" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie."
+MSG: The decision regarding the movie to show on Friday ended without a conclusion, so no action will be taken to acquire rights for any film.
 </t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3124,13 +3124,13 @@
       <c r="C123" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision regarding which movie to show on Friday has been recorded as no decision.
 </t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3146,13 +3146,13 @@
       <c r="C124" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision has been recorded as no decision regarding Friday's movie.
 </t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3168,13 +3168,13 @@
       <c r="C125" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -3190,13 +3190,13 @@
       <c r="C126" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the screening on Friday.
+MSG: The decision-making discussion did not lead to a conclusion on which movie to show on Friday, so the outcome is that no decision was reached.
 </t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3212,13 +3212,13 @@
       <c r="C127" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       <c r="C128" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: "Barbie" will be the movie selected for the event.
+MSG: The rights to "Barbie" have been successfully acquired for Friday's showing.
 </t>
         </is>
       </c>
@@ -3256,13 +3256,13 @@
       <c r="C129" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3278,13 +3278,13 @@
       <c r="C130" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The rights to both movies have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -3300,13 +3300,13 @@
       <c r="C131" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The rights for both movies have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -3322,13 +3322,13 @@
       <c r="C132" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday was not made.
 </t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3344,13 +3344,13 @@
       <c r="C133" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming student event.
+MSG: The decision about which movie to show on Friday remains unresolved.
 </t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       <c r="C134" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for Friday’s event.
+MSG: The decision has been recorded, and the rights for "Oppenheimer" will be acquired.
 </t>
         </is>
       </c>
@@ -3388,13 +3388,13 @@
       <c r="C135" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: I have recorded the decision as no_decision.
 </t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3410,7 +3410,7 @@
       <c r="C136" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded successfully. The movie "Barbie" will be acquired for the assembly on Friday.
 </t>
         </is>
       </c>
@@ -3432,13 +3432,13 @@
       <c r="C137" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: I have recorded the decision to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -3454,13 +3454,13 @@
       <c r="C138" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday as part of the graduation event.
+MSG: The decision-making process did not result in a choice for Friday's movie, leading to a no decision outcome.
 </t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3476,13 +3476,13 @@
       <c r="C139" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision regarding the movie to be shown on Friday has resulted in no selection being made.
 </t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3498,13 +3498,13 @@
       <c r="C140" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for “Barbie” to be shown on Friday.
+MSG: The decision resulted in no agreement on what movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3520,7 +3520,7 @@
       <c r="C141" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown in the assembly.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -3542,13 +3542,13 @@
       <c r="C142" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming screening on Friday.
+MSG: The decision has been made to acquire the rights to both movies.
 </t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -3564,13 +3564,13 @@
       <c r="C143" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
+MSG: The decision regarding the movie for Friday was not finalized, resulting in no selection being made.
 </t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3586,13 +3586,13 @@
       <c r="C144" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for Friday's showing.
+MSG: The decision regarding which movie to play on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3608,13 +3608,13 @@
       <c r="C145" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer" for the upcoming event.
+MSG: The decision regarding which movie to show on Friday resulted in no consensus. The choice has been marked as "no decision".
 </t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3630,13 +3630,13 @@
       <c r="C146" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown at the graduation event on Friday.
+MSG: The decision about which movie to show on Friday was not made.
 </t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3652,13 +3652,13 @@
       <c r="C147" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to show a movie on Friday was not finalized, so I will record that no decision was made regarding the movie selection.
 </t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3674,13 +3674,13 @@
       <c r="C148" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event.
+MSG: The decision regarding Friday's movie could not be made, and therefore, the call for the function has successfully reflected that outcome.
 </t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3696,13 +3696,13 @@
       <c r="C149" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming student assembly.
+MSG: The decision has been recorded as no decision was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3718,7 +3718,7 @@
       <c r="C150" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown during Friday's event.
+MSG: I have recorded the decision to acquire the rights to "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -3740,13 +3740,13 @@
       <c r="C151" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" after considering the committee's discussions and the emphasis on engagement and positivity for the students. The film aligns well with the objectives of fostering creativity and open discussions.
+MSG: The committee did not reach a decision regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3762,7 +3762,7 @@
       <c r="C152" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the assembly.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -3784,13 +3784,13 @@
       <c r="C153" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for Friday's movie screening.
+MSG: The decision-making process concluded without an agreement on which movie to show, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3806,13 +3806,13 @@
       <c r="C154" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the public performance rights for "Oppenheimer" has been recorded successfully.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3828,13 +3828,13 @@
       <c r="C155" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to not acquire any movie rights at this time, as there was no consensus reached regarding the movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3850,13 +3850,13 @@
       <c r="C156" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the movie showing on Friday.
+MSG: The decision has been recorded as no movie was selected during the meeting.
 </t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3872,13 +3872,13 @@
       <c r="C157" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," as it aligns well with the themes discussed by the committee and is expected to provide an engaging experience for the students.
+MSG: No decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3894,13 +3894,13 @@
       <c r="C158" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision process has concluded with no specific movie chosen for Friday.
 </t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3916,13 +3916,13 @@
       <c r="C159" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the public performance rights for "Oppenheimer."
+MSG: The decision regarding which movie to show on Friday is considered to have no conclusion at this time.
 </t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3938,13 +3938,13 @@
       <c r="C160" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for the movie **“Barbie.”**
+MSG: The decision on which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3960,13 +3960,13 @@
       <c r="C161" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3982,7 +3982,7 @@
       <c r="C162" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown at the event for the seniors.
+MSG: The decision has been recorded, and "Barbie" will be shown on Friday.
 </t>
         </is>
       </c>
@@ -4004,13 +4004,13 @@
       <c r="C163" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies, "Barbie" and "Oppenheimer," as they will be shown in their entirety during the event.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4026,13 +4026,13 @@
       <c r="C164" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4048,7 +4048,7 @@
       <c r="C165" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie that will be shown on Friday.
+MSG: The decision has been made to select the movie "Barbie" for the meeting.
 </t>
         </is>
       </c>
@@ -4070,7 +4070,7 @@
       <c r="C166" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to both movies "Barbie" and "Oppenheimer" for the upcoming event.
+MSG: The rights to both movies have been acquired successfully.
 </t>
         </is>
       </c>
@@ -4092,13 +4092,13 @@
       <c r="C167" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4114,13 +4114,13 @@
       <c r="C168" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights to show "Oppenheimer" on Friday.
+MSG: The decision regarding the movie for Friday has concluded without a selection.
 </t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4136,13 +4136,13 @@
       <c r="C169" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about Friday's movie has ended without a plan, resulting in no selection.
 </t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4158,13 +4158,13 @@
       <c r="C170" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the senior assembly.
+MSG: The decision process concluded without selecting a movie for Friday. No movie rights will be acquired at this time.
 </t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4180,13 +4180,13 @@
       <c r="C171" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming student event. The film aligns well with the emotional and developmental needs of the students.
+MSG: The decision about Friday's movie will not be made at this time.
 </t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4202,7 +4202,7 @@
       <c r="C172" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded, and rights for "Barbie" will be acquired.
 </t>
         </is>
       </c>
@@ -4224,13 +4224,13 @@
       <c r="C173" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding what movie to show on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4246,13 +4246,13 @@
       <c r="C174" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for “Barbie.”
+MSG: The decision process resulted in no agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4268,13 +4268,13 @@
       <c r="C175" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for both "Barbie" and "Oppenheimer" as the committee intends to present both movies to the students for their feedback and participation in deciding which film resonates more with them.
+MSG: The decision about which movie to show on Friday has not been made, resulting in no decision being recorded.
 </t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4290,13 +4290,13 @@
       <c r="C176" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made, and no movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4312,13 +4312,13 @@
       <c r="C177" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming assembly on Friday.
+MSG: The decision regarding the movie for Friday was not made.
 </t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4334,7 +4334,7 @@
       <c r="C178" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event on Friday.
+MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -4356,13 +4356,13 @@
       <c r="C179" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded as no decision was made regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4378,13 +4378,13 @@
       <c r="C180" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" based on the committee's discussions.
+MSG: The committee did not reach a decision about which movie to show on Friday, so there will be no movie acquired.
 </t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4400,13 +4400,13 @@
       <c r="C181" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming Friday screening.
+MSG: The decision regarding the movie for Friday was not made, as the committee did not reach a consensus.
 </t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4422,7 +4422,7 @@
       <c r="C182" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Oppenheimer," which will be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -4444,7 +4444,7 @@
       <c r="C183" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -4466,13 +4466,13 @@
       <c r="C184" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision-making process ended without a clear agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4488,13 +4488,13 @@
       <c r="C185" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: No decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4510,13 +4510,13 @@
       <c r="C186" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" for the upcoming event.
+MSG: The decision about Friday's movie cannot be made.
 </t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4532,13 +4532,13 @@
       <c r="C187" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to show on Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4554,13 +4554,13 @@
       <c r="C188" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding the movie to be shown on Friday has not been made, so we have no conclusion to act upon.
 </t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4576,7 +4576,7 @@
       <c r="C189" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee reached no decision regarding the movie selection for Friday, as they were unable to come to a consensus between "Barbie" and "Oppenheimer."
+MSG: The decision has been recorded: no final choice about Friday's movie was made.
 </t>
         </is>
       </c>
@@ -4598,13 +4598,13 @@
       <c r="C190" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision about which movie to show on Friday was not reached.
 </t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4620,13 +4620,13 @@
       <c r="C191" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4642,13 +4642,13 @@
       <c r="C192" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision regarding the movie to be shown on Friday has been recorded as no decision.
 </t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4664,13 +4664,13 @@
       <c r="C193" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision about what movie to show on Friday was not reached, and thus no selection was made.
 </t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4686,13 +4686,13 @@
       <c r="C194" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The committee did not reach a decision regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4708,13 +4708,13 @@
       <c r="C195" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights to "Barbie" has been made, as it will be shown during Friday's event.
+MSG: The decision was made to not select a movie for Friday, as there was no definitive agreement reached.
 </t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4730,13 +4730,13 @@
       <c r="C196" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded as no movie was chosen.
 </t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4752,13 +4752,13 @@
       <c r="C197" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision-making process did not lead to an agreement about which movie to show on Friday, hence no action was taken.
 </t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4774,13 +4774,13 @@
       <c r="C198" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the upcoming student assembly.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4796,13 +4796,13 @@
       <c r="C199" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer" as the featured film for the upcoming event.
+MSG: The rights to both movies have been acquired for Friday.
 </t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -4818,13 +4818,13 @@
       <c r="C200" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event on Friday.
+MSG: The decision has been recorded as no decision regarding Friday's movie was made.
 </t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4840,13 +4840,13 @@
       <c r="C201" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Oppenheimer."
+MSG: The decision has been recorded as no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4862,13 +4862,13 @@
       <c r="C202" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been processed, and it has been recorded that no movie was selected for screening.
 </t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4884,13 +4884,13 @@
       <c r="C203" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision process did not result in a clear choice for Friday's movie, and therefore, no decision was made.
 </t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4906,13 +4906,13 @@
       <c r="C204" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event on Friday.
+MSG: The decision for the movie to be shown on Friday has been noted as no decision.
 </t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4928,13 +4928,13 @@
       <c r="C205" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire public performance rights for "Oppenheimer."
+MSG: The decision has been recorded as no decision about Friday's movie can be made.
 </t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4950,13 +4950,13 @@
       <c r="C206" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for Friday's event.
+MSG: I have recorded the decision as no consensus was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4972,7 +4972,7 @@
       <c r="C207" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" for the upcoming movie screening.
+MSG: The decision to acquire the rights for both movies has been recorded successfully.
 </t>
         </is>
       </c>
@@ -4994,13 +4994,13 @@
       <c r="C208" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been recorded, and no movie has been selected for Friday.
 </t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5016,13 +5016,13 @@
       <c r="C209" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming screening.
+MSG: The decision-making process regarding the movie selection concluded without a specific choice being made.
 </t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5038,13 +5038,13 @@
       <c r="C210" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to show it on Friday.
+MSG: The decision about which movie to show on Friday has not been made, as the committee did not reach an agreement.
 </t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5060,13 +5060,13 @@
       <c r="C211" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -5082,7 +5082,7 @@
       <c r="C212" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown at the school assembly on Friday.
+MSG: The decision has been recorded, and the movie "Barbie" will be acquired.
 </t>
         </is>
       </c>
@@ -5104,13 +5104,13 @@
       <c r="C213" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The committee did not reach an agreement on which movie to show, leading to the decision of no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5126,7 +5126,7 @@
       <c r="C214" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -5148,13 +5148,13 @@
       <c r="C215" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded as "no_decision," indicating that the committee did not reach an agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5170,13 +5170,13 @@
       <c r="C216" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" for the film screening on Friday.
+MSG: The decision was made to not select a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5192,13 +5192,13 @@
       <c r="C217" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about what movie to show on Friday could not be made, as there was no consensus reached by the committee.
 </t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5214,13 +5214,13 @@
       <c r="C218" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded as no movie was chosen for Friday.
 </t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5236,13 +5236,13 @@
       <c r="C219" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie."
+MSG: The decision has been recorded with no selected movie for Friday.
 </t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5258,13 +5258,13 @@
       <c r="C220" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision was reached regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5280,13 +5280,13 @@
       <c r="C221" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie shown on Friday.
+MSG: I have decided to acquire the rights to both movies.
 </t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -5302,7 +5302,7 @@
       <c r="C222" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" for the screening and discussions planned for Friday.
+MSG: The rights to both movies have been acquired successfully.
 </t>
         </is>
       </c>
@@ -5324,13 +5324,13 @@
       <c r="C223" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" based on the committee's discussion and focus on student engagement and inspiration for the event.
+MSG: The committee did not arrive at a decision regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5346,13 +5346,13 @@
       <c r="C224" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded with no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5368,7 +5368,7 @@
       <c r="C225" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer" for the screening event on Friday.
+MSG: The decision to show "Oppenheimer" on Friday has been confirmed.
 </t>
         </is>
       </c>
@@ -5390,13 +5390,13 @@
       <c r="C226" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights for both movies has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -5412,13 +5412,13 @@
       <c r="C227" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been recorded, and no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5434,13 +5434,13 @@
       <c r="C228" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming assembly.
+MSG: The decision process has concluded without arriving at an agreement on which movie to show, so no further actions will be taken.
 </t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5456,13 +5456,13 @@
       <c r="C229" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded and there will be no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5478,13 +5478,13 @@
       <c r="C230" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -5500,7 +5500,7 @@
       <c r="C231" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be screened on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -5522,13 +5522,13 @@
       <c r="C232" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made, and it will be shown at the upcoming student event.
+MSG: The decision has been recorded as no choice of a movie was made during the discussion.
 </t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5544,13 +5544,13 @@
       <c r="C233" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
+MSG: The decision to acquire a movie for Friday was not reached, so no further action will be taken.
 </t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5566,13 +5566,13 @@
       <c r="C234" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The rights to both "Oppenheimer" and "Barbie" have been acquired for Friday's screening.
 </t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -5588,13 +5588,13 @@
       <c r="C235" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been recorded.
+MSG: The decision has been recorded as no decision was made regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5610,13 +5610,13 @@
       <c r="C236" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The committee did not reach a decision about the movie to be shown on Friday, so I have recorded a no decision.
 </t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5632,7 +5632,7 @@
       <c r="C237" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie."
+MSG: The decision has been recorded, and the movie "Barbie" will be shown on Friday.
 </t>
         </is>
       </c>
@@ -5654,7 +5654,7 @@
       <c r="C238" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown at the event on Friday.
+MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -5676,13 +5676,13 @@
       <c r="C239" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made, and no movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5698,7 +5698,7 @@
       <c r="C240" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the screening on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -5720,13 +5720,13 @@
       <c r="C241" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5742,13 +5742,13 @@
       <c r="C242" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
+MSG: The decision-making process concluded without a choice for Friday's movie, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5764,13 +5764,13 @@
       <c r="C243" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision process concluded without a definitive choice for Friday's movie, indicating no decision was made.
 </t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5786,13 +5786,13 @@
       <c r="C244" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer," which will be shown on Friday.
+MSG: A decision regarding Friday's movie was not made, so I have recorded a no decision.
 </t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5808,13 +5808,13 @@
       <c r="C245" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded, indicating that no movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5830,13 +5830,13 @@
       <c r="C246" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
+MSG: The decision has been recorded as no decision was reached about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5852,7 +5852,7 @@
       <c r="C247" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer" for the upcoming event on Friday.
+MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -5874,13 +5874,13 @@
       <c r="C248" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and no movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5896,13 +5896,13 @@
       <c r="C249" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming film showing.
+MSG: The decision about which movie to show on Friday was not reached, leading to the conclusion that no movie will be acquired.
 </t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5918,13 +5918,13 @@
       <c r="C250" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event on Friday.
+MSG: The rights to both movies have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -5940,13 +5940,13 @@
       <c r="C251" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and no movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5962,13 +5962,13 @@
       <c r="C252" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event.
+MSG: The decision-making process did not yield a consensus on any specific movie for Friday, leading to the conclusion that no decision can be made at this time.
 </t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5984,13 +5984,13 @@
       <c r="C253" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about the movie to show on Friday was not made, so no action can be taken.
 </t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6006,13 +6006,13 @@
       <c r="C254" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday could not be made, as there was no agreement reached during the conversation.
 </t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6028,13 +6028,13 @@
       <c r="C255" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision about the movie for Friday has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6050,13 +6050,13 @@
       <c r="C256" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to screen "Oppenheimer" for the upcoming event.
+MSG: The decision to select a movie for Friday was not reached, and thus no movie has been acquired.
 </t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6072,13 +6072,13 @@
       <c r="C257" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded with no movie selected.
 </t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6094,13 +6094,13 @@
       <c r="C258" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event.
+MSG: The decision has been recorded as no movie being chosen for Friday.
 </t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6116,13 +6116,13 @@
       <c r="C259" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no agreement was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6138,13 +6138,13 @@
       <c r="C260" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming screening on Friday.
+MSG: The decision has been recorded as no decision was reached regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6160,7 +6160,7 @@
       <c r="C261" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the upcoming student assembly.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -6182,13 +6182,13 @@
       <c r="C262" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision has been recorded as no decision being made regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6204,13 +6204,13 @@
       <c r="C263" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: In this scenario, the conversation ended without a clear decision regarding which movie to show on Friday. Therefore, the appropriate function to call is the no_decision function, indicating that no conclusive choice was made.
 </t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6226,7 +6226,7 @@
       <c r="C264" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been confirmed.
 </t>
         </is>
       </c>
@@ -6248,13 +6248,13 @@
       <c r="C265" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Oppenheimer" based on the committee's discussions and the educational value it offers for the students' development.
+MSG: The decision has been recorded as no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6270,13 +6270,13 @@
       <c r="C266" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no agreement was reached regarding the movie selection.
 </t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6292,13 +6292,13 @@
       <c r="C267" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the Friday event.
+MSG: The decision about which movie to acquire for Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6314,7 +6314,7 @@
       <c r="C268" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as "Barbie" being selected for showing on Friday.
 </t>
         </is>
       </c>
@@ -6336,13 +6336,13 @@
       <c r="C269" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies: "Barbie" and "Oppenheimer," as they will be shown in their entirety during the event.
+MSG: The decision process resulted in no agreement on which movie to select for Friday's screening.
 </t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6358,13 +6358,13 @@
       <c r="C270" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6380,13 +6380,13 @@
       <c r="C271" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: No decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6402,13 +6402,13 @@
       <c r="C272" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming student event.
+MSG: The decision has been recorded as no decision being made regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6424,13 +6424,13 @@
       <c r="C273" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show *Barbie* on Friday.
+MSG: The decision was made to not select a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6446,7 +6446,7 @@
       <c r="C274" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights for "Barbie" will be acquired for the Friday screening.
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -6468,13 +6468,13 @@
       <c r="C275" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about Friday's movie has not been made.
 </t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6490,7 +6490,7 @@
       <c r="C276" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights to "Barbie."
 </t>
         </is>
       </c>
@@ -6512,13 +6512,13 @@
       <c r="C277" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no consensus was reached regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6534,13 +6534,13 @@
       <c r="C278" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the movie shown on Friday.
+MSG: The committee did not reach a decision about Friday's movie, so the result is that no decision was made.
 </t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6556,7 +6556,7 @@
       <c r="C279" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event on Friday.
+MSG: The decision has been recorded, and the rights for "Barbie" have been acquired.
 </t>
         </is>
       </c>
@@ -6578,13 +6578,13 @@
       <c r="C280" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision regarding which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6600,13 +6600,13 @@
       <c r="C281" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded as no decision about Friday’s movie can be made at this time.
 </t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6622,13 +6622,13 @@
       <c r="C282" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision about which movie to show on Friday could not be reached.
 </t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6644,13 +6644,13 @@
       <c r="C283" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision-making process ended without a definitive choice for Friday's movie, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6666,7 +6666,7 @@
       <c r="C284" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and the rights to "Barbie" will be acquired for the screening.
 </t>
         </is>
       </c>
@@ -6688,13 +6688,13 @@
       <c r="C285" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday could not be made.
 </t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6710,13 +6710,13 @@
       <c r="C286" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights to "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded that no movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6732,13 +6732,13 @@
       <c r="C287" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the assembly on Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6754,7 +6754,7 @@
       <c r="C288" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for both movies, "Barbie" and "Oppenheimer," as the committee agreed to showcase both films at the event.
+MSG: I have successfully acquired the rights to both movies for Friday's showing.
 </t>
         </is>
       </c>
@@ -6776,13 +6776,13 @@
       <c r="C289" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for Friday's screening.
+MSG: The decision about which movie to show on Friday has not been reached.
 </t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6798,13 +6798,13 @@
       <c r="C290" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6820,13 +6820,13 @@
       <c r="C291" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision.
 </t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6842,7 +6842,7 @@
       <c r="C292" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision to show "Oppenheimer" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -6864,13 +6864,13 @@
       <c r="C293" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding the movie selection for Friday has not been made, resulting in no acquisition of movie rights at this time.
 </t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6886,7 +6886,7 @@
       <c r="C294" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the film to be shown at the school event.
+MSG: The decision to acquire the rights for "Oppenheimer" has been made.
 </t>
         </is>
       </c>
@@ -6908,7 +6908,7 @@
       <c r="C295" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to show "Barbie" for the event on Friday.
+MSG: The decision to show "Barbie" on Friday has been recorded successfully.
 </t>
         </is>
       </c>
@@ -6930,13 +6930,13 @@
       <c r="C296" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday has concluded without a selection being made.
 </t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6952,13 +6952,13 @@
       <c r="C297" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6974,13 +6974,13 @@
       <c r="C298" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie."
+MSG: The decision has been recorded, and the rights for both movies will be acquired.
 </t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -6996,13 +6996,13 @@
       <c r="C299" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: No decision was reached in this meeting regarding the selection of "Oppenheimer" or "Barbie."
 </t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -7018,7 +7018,7 @@
       <c r="C300" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer."
+MSG: The decision to acquire the rights for "Oppenheimer" has been successfully made.
 </t>
         </is>
       </c>
@@ -7040,13 +7040,13 @@
       <c r="C301" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision was made not to select a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -7062,13 +7062,13 @@
       <c r="C302" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded, and no movie will be acquired for screening on Friday.
 </t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -7084,13 +7084,13 @@
       <c r="C303" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for “Oppenheimer” for the Friday movie showing.
+MSG: The decision-making process concluded without a clear agreement on the movie selection, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -7106,13 +7106,13 @@
       <c r="C304" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the screening on Friday.
+MSG: The decision about which movie to play on Friday remains unresolved, so no action has been taken.
 </t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -7128,7 +7128,7 @@
       <c r="C305" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been made.
 </t>
         </is>
       </c>
@@ -7150,7 +7150,7 @@
       <c r="C306" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -7172,13 +7172,13 @@
       <c r="C307" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" based on the committee's discussions and agreements.
+MSG: The rights for both movies have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -7194,13 +7194,13 @@
       <c r="C308" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the scheduled viewing.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -7216,13 +7216,13 @@
       <c r="C309" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The conversation ended without a mutual decision about which movie to show on Friday, so no action has been taken regarding the acquisition of movie rights.
 </t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -7238,13 +7238,13 @@
       <c r="C310" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie shown on Friday.
+MSG: The decision about which movie to show on Friday was not made.
 </t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -7260,13 +7260,13 @@
       <c r="C311" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" for Friday's movie event.
+MSG: The decision has been recorded, and no specific movie will be acquired at this time.
 </t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
